--- a/СЛАУ Ортогонализация.xlsx
+++ b/СЛАУ Ортогонализация.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Boris\Documents\MIREA\Course2\Vychmat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A249B9-D837-4D03-B9FE-958F0A10497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819CD6E8-8C9A-4C25-838A-07E701893D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="-15" windowWidth="23490" windowHeight="15480" xr2:uid="{11F30958-52CA-4B1B-B3D5-1FD3CB8496B7}"/>
+    <workbookView xWindow="2025" yWindow="15" windowWidth="23490" windowHeight="15480" xr2:uid="{11F30958-52CA-4B1B-B3D5-1FD3CB8496B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#&quot; &quot;???/???"/>
+    <numFmt numFmtId="164" formatCode="#&quot; &quot;???/???"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -227,7 +227,7 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
         <v>35.500000000002231</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>IF(INT(B13)=B13,B13,TEXT(B13,"###/###"))</f>
+        <f>IF(INT(B13)=B13,TEXT(B13,"#"),TEXT(B13,"###/###"))</f>
         <v>71/2</v>
       </c>
       <c r="F13" s="1">
@@ -705,7 +705,7 @@
         <v>-4.5000000000011937</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f>IF(INT(F13)=F13,F13,TEXT(F13,"###/###"))</f>
+        <f>IF(INT(F13)=F13,TEXT(F13,"#"),TEXT(F13,"###/###"))</f>
         <v>-9/2</v>
       </c>
     </row>
@@ -715,7 +715,7 @@
         <v>28.500000000002231</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f t="shared" ref="C14:C15" si="4">IF(INT(B14)=B14,B14,TEXT(B14,"###/###"))</f>
+        <f t="shared" ref="C14:C15" si="4">IF(INT(B14)=B14,TEXT(B14,"#"),TEXT(B14,"###/###"))</f>
         <v>57/2</v>
       </c>
       <c r="F14" s="1">
@@ -723,7 +723,7 @@
         <v>-1.5000000000003375</v>
       </c>
       <c r="G14" s="3" t="str">
-        <f t="shared" ref="G14:G15" si="6">IF(INT(F14)=F14,F14,TEXT(F14,"###/###"))</f>
+        <f t="shared" ref="G14:G15" si="6">IF(INT(F14)=F14,TEXT(F14,"#"),TEXT(F14,"###/###"))</f>
         <v>-3/2</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>0.91304347826086951</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>IF(INT(B19)=B19,B19,TEXT(B19,"###/###"))</f>
+        <f>IF(INT(B19)=B19,TEXT(B19,"#"),TEXT(B19,"###/###"))</f>
         <v>21/23</v>
       </c>
       <c r="D19" s="1">
@@ -770,7 +770,7 @@
         <v>0.35652173913043478</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>IF(INT(D19)=D19,D19,TEXT(D19,"###/###"))</f>
+        <f>IF(INT(D19)=D19,TEXT(D19,"#"),TEXT(D19,"###/###"))</f>
         <v>41/115</v>
       </c>
       <c r="F19" s="1">
@@ -778,7 +778,7 @@
         <v>0.57615894039735116</v>
       </c>
       <c r="G19" s="3" t="str">
-        <f>IF(INT(F19)=F19,F19,TEXT(F19,"###/###"))</f>
+        <f>IF(INT(F19)=F19,TEXT(F19,"#"),TEXT(F19,"###/###"))</f>
         <v>87/151</v>
       </c>
     </row>
@@ -803,7 +803,7 @@
         <v>-0.21739130434782616</v>
       </c>
       <c r="E23" s="3" t="str">
-        <f>IF(INT(D23)=D23,D23,TEXT(D23,"###/###"))</f>
+        <f>IF(INT(D23)=D23,TEXT(D23,"#"),TEXT(D23,"###/###"))</f>
         <v>-5/23</v>
       </c>
       <c r="F23" s="1">
@@ -811,7 +811,7 @@
         <v>-8.3443708609271583E-2</v>
       </c>
       <c r="G23" s="3" t="str">
-        <f>IF(INT(F23)=F23,F23,TEXT(F23,"###/###"))</f>
+        <f>IF(INT(F23)=F23,TEXT(F23,"#"),TEXT(F23,"###/###"))</f>
         <v>-63/755</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
         <v>3.2608695652173916</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="shared" ref="E24:G25" si="7">IF(INT(D24)=D24,D24,TEXT(D24,"###/###"))</f>
+        <f t="shared" ref="E24:E25" si="7">IF(INT(D24)=D24,TEXT(D24,"#"),TEXT(D24,"###/###"))</f>
         <v>75/23</v>
       </c>
       <c r="F24" s="1">
@@ -833,7 +833,7 @@
         <v>5.1655629139072179E-2</v>
       </c>
       <c r="G24" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(INT(F24)=F24,TEXT(F24,"#"),TEXT(F24,"###/###"))</f>
         <v>39/755</v>
       </c>
     </row>
@@ -855,7 +855,7 @@
         <v>0.11920529801324531</v>
       </c>
       <c r="G25" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(INT(F25)=F25,TEXT(F25,"#"),TEXT(F25,"###/###"))</f>
         <v>18/151</v>
       </c>
     </row>
@@ -891,7 +891,7 @@
         <v>-0.50000000000012568</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f>IF(INT(B30)=B30,B30,TEXT(B30,"###/###"))</f>
+        <f>IF(INT(B30)=B30,TEXT(B30,"#"),TEXT(B30,"###/###"))</f>
         <v>-1/2</v>
       </c>
       <c r="D30" s="1">
@@ -899,7 +899,7 @@
         <v>5.0000000000004281</v>
       </c>
       <c r="E30" s="3" t="str">
-        <f>IF(INT(D30)=D30,D30,TEXT(D30,"###/###"))</f>
+        <f>IF(INT(D30)=D30,TEXT(D30,"#"),TEXT(D30,"###/###"))</f>
         <v>5/1</v>
       </c>
       <c r="F30" s="1">
